--- a/006-LSM6DSV 「Blueberry」/Old_Version/BOM_LSM6DSV.xlsx
+++ b/006-LSM6DSV 「Blueberry」/Old_Version/BOM_LSM6DSV.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1505EA-CD7D-4431-AFC4-9B2F6EE17607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABDFD73-880D-4665-B17B-6135ED713CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4224" yWindow="4464" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_LSM6DSV16_LSM6DSV_2023-12-0" sheetId="1" r:id="rId1"/>
@@ -356,9 +356,6 @@
     <t>20</t>
   </si>
   <si>
-    <t>M3406-ADJ</t>
-  </si>
-  <si>
     <t>U2</t>
   </si>
   <si>
@@ -368,9 +365,6 @@
     <t>西安航天民芯</t>
   </si>
   <si>
-    <t>C83224</t>
-  </si>
-  <si>
     <t>21</t>
   </si>
   <si>
@@ -441,6 +435,14 @@
   </si>
   <si>
     <t>C2765186</t>
+  </si>
+  <si>
+    <t>C22462728</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT3406</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -827,10 +829,10 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="10" width="20" customWidth="1"/>
   </cols>
@@ -1452,25 +1454,25 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" t="s">
         <v>113</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>114</v>
-      </c>
-      <c r="E21" t="s">
-        <v>115</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="H21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I21" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -1478,31 +1480,31 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" t="s">
         <v>118</v>
       </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>119</v>
-      </c>
-      <c r="D22" t="s">
-        <v>120</v>
-      </c>
-      <c r="E22" t="s">
-        <v>121</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1510,31 +1512,31 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" t="s">
         <v>124</v>
       </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="E23" t="s">
         <v>125</v>
-      </c>
-      <c r="D23" t="s">
-        <v>126</v>
-      </c>
-      <c r="E23" t="s">
-        <v>127</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -1542,31 +1544,31 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" t="s">
         <v>130</v>
       </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="E24" t="s">
         <v>131</v>
-      </c>
-      <c r="D24" t="s">
-        <v>132</v>
-      </c>
-      <c r="E24" t="s">
-        <v>133</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1574,31 +1576,31 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" t="s">
         <v>136</v>
       </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="E25" t="s">
         <v>137</v>
-      </c>
-      <c r="D25" t="s">
-        <v>138</v>
-      </c>
-      <c r="E25" t="s">
-        <v>139</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
       </c>
       <c r="G25" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
